--- a/xlsx/普魯塔克_intext.xlsx
+++ b/xlsx/普魯塔克_intext.xlsx
@@ -29,7 +29,7 @@
     <t>羅馬帝國</t>
   </si>
   <si>
-    <t>政策_政策_政治學_普魯塔克</t>
+    <t>体育运动_体育运动_古希腊_普魯塔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%AF%A5%E4%BA%9A%E8%A1%8C%E7%9C%81</t>
